--- a/data/trans_camb/P32-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 18,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 5,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 12,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,38; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,97; 14,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 2,45</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>301,44%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>206,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>269,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,62%</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,7; 1022,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,9; 327,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,8; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,47; 714,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,03; 151,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 7,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; -1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; -0,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 4,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 2,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 0,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; -0,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; -0,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,96%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,1; 231,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,31; 17,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 195,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,55; -13,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,71; -14,23</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 3,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 4,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,84; 15,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 5,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 2,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 2,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 10,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>271,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>339,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1866,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>318,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>370,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2028,09%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,62; 13,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 3,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 5,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; 5,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; -0,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 9,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 1,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 1,88</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>196,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,06%</t>
         </is>
       </c>
     </row>
@@ -1439,22 +1439,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,14; 512,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,66; 140,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,87; 210,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,81; 473,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,68; 354,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,05; 77,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,39; 79,52</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 12,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 5,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,43; -0,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,93; 3,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 17,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 8,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 3,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 1,54</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>223,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,98%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,59%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,0; 1348,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,2; 858,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 4,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 3,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 8,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 2,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 3,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 4,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 2,85</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 2,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 5,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,42%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,95%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,31%</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,92; 822,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,98; 488,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,73; 1100,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,86; 305,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,36; 232,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,77; 547,88</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 6,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 11,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,39; 17,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 10,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 9,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 4,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,24; 10,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 11,97</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,88%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>443,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>653,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>197,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>601,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>643,35%</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 813,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>117,67; 1424,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>187,67; 2087,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 811,85</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>178,31; 1885,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>152,23; 2045,28</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 5,35</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,67</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 2,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 3,9</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 2,74</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 7,16</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,7</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 3,48</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,05%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,88%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,23%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>305,02%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,67%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,58%</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 525,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,72; 370,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,15; 315,16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 534,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,19; 365,62</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,7; 387,19</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 5,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 3,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 5,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 2,13</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,2</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 2,91</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 3,93</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 3,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 3,64</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,4%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,04%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,41%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,7%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,0; 248,52</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,89; 173,2</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,89; 240,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 231,32</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,4; 353,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 295,98</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,59; 203,79</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,83; 165,47</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,81; 185,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,26; 28,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,54</t>
+          <t>-3,84; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 12,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,3; 19,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,45</t>
+          <t>-3,32; 3,25</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>524,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>400,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,62%</t>
+          <t>-8,56%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>191,5; 1704,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,9; 327,31</t>
+          <t>-73,66; 354,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>143,31; 990,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 151,57</t>
+          <t>-72,28; 198,31</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,39</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,8</t>
+          <t>-8,07; -0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 0,96</t>
+          <t>-5,51; 0,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; -0,91</t>
+          <t>-6,15; -0,89</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-71,25%</t>
+          <t>-71,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-63,86%</t>
+          <t>-62,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-72,96%</t>
+          <t>-72,56%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-95,31; 17,72</t>
+          <t>-95,36; 21,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-94,71; -14,23</t>
+          <t>-94,6; -11,24</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,25</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,05</t>
+          <t>5,73; 15,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,76</t>
+          <t>0,66; 5,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,88</t>
+          <t>4,52; 11,06</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1866,19%</t>
+          <t>1866,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2028,09%</t>
+          <t>2044,71%</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,25</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 13,66</t>
+          <t>-4,19; 4,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,13</t>
+          <t>-4,14; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 5,65</t>
+          <t>-5,84; 2,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,39</t>
+          <t>-7,59; -0,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,6</t>
+          <t>-3,81; 2,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,88</t>
+          <t>-4,21; 1,78</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>196,29%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>-41,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-80,18%</t>
+          <t>-79,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>144,92%</t>
+          <t>-18,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-28,06%</t>
+          <t>-29,01%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,14; 512,41</t>
+          <t>-65,34; 190,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,87; 210,2</t>
+          <t>-65,88; 195,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,81; 473,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,68; 354,92</t>
+          <t>-69,58; 100,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 79,52</t>
+          <t>-72,7; 79,27</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,87</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 17,06</t>
+          <t>-7,13; 18,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,54</t>
+          <t>-5,73; 1,7</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-63,59%</t>
+          <t>-62,84%</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,05</t>
+          <t>-0,5; 7,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,31</t>
+          <t>-2,68; 4,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,52</t>
+          <t>-0,3; 5,45</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>147,42%</t>
+          <t>143,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>113,31%</t>
+          <t>112,01%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 1100,96</t>
+          <t>-33,26; 1087,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 547,88</t>
+          <t>-25,39; 541,89</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>6,72</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,3</t>
+          <t>7,2; 17,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,14</t>
+          <t>0,68; 8,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,97</t>
+          <t>1,36; 11,37</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>653,01%</t>
+          <t>647,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>643,35%</t>
+          <t>538,69%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>187,67; 2087,81</t>
+          <t>189,42; 2114,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>152,23; 2045,28</t>
+          <t>82,96; 1826,76</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,95</t>
+          <t>-1,23; 2,99</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,16</t>
+          <t>-0,11; 7,12</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,48</t>
+          <t>-0,35; 3,51</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>42,02%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>305,02%</t>
+          <t>310,93%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>89,96%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 315,16</t>
+          <t>-62,63; 318,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 387,19</t>
+          <t>-37,45; 393,63</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,18</t>
+          <t>2,01; 5,33</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,91</t>
+          <t>-0,57; 2,44</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,64</t>
+          <t>1,08; 3,57</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>123,04%</t>
+          <t>126,06%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>106,7%</t>
+          <t>101,1%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>59,89; 240,06</t>
+          <t>60,28; 244,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 295,98</t>
+          <t>-29,04; 252,41</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>49,81; 185,89</t>
+          <t>39,07; 175,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 28,32</t>
+          <t>13,64; 28,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 18,65</t>
+          <t>5,94; 18,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,6</t>
+          <t>-3,82; 6,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 12,12</t>
+          <t>-2,13; 11,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 12,7</t>
+          <t>-0,75; 13,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 0,0</t>
+          <t>-9,29; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 19,34</t>
+          <t>9,02; 19,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,58</t>
+          <t>5,11; 14,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,25</t>
+          <t>-3,6; 3,46</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>191,5; 1704,76</t>
+          <t>197,65; 1761,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,7; 1022,43</t>
+          <t>76,55; 1021,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 354,51</t>
+          <t>-68,24; 372,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,57; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,8; —</t>
+          <t>-46,34; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>143,31; 990,82</t>
+          <t>145,86; 1011,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,47; 714,17</t>
+          <t>77,89; 745,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,28; 198,31</t>
+          <t>-75,5; 188,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,77</t>
+          <t>-1,52; 7,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -1,41</t>
+          <t>-8,31; -1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; -0,74</t>
+          <t>-7,86; -0,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,62</t>
+          <t>-3,41; 4,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,98</t>
+          <t>-4,16; 2,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 0,99</t>
+          <t>-6,18; 1,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,61</t>
+          <t>-1,45; 5,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -0,98</t>
+          <t>-6,47; -0,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; -0,89</t>
+          <t>-6,52; -1,29</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 231,28</t>
+          <t>-22,61; 197,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -19,64</t>
+          <t>-100,0; -28,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-95,36; 21,16</t>
+          <t>-95,37; 10,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 195,02</t>
+          <t>-26,34; 178,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,55; -13,5</t>
+          <t>-93,5; -4,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-94,6; -11,24</t>
+          <t>-94,6; -9,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,75</t>
+          <t>-0,13; 4,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,19</t>
+          <t>-0,08; 4,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 15,05</t>
+          <t>5,74; 15,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,72</t>
+          <t>0,67; 6,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,68</t>
+          <t>-0,19; 2,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,85</t>
+          <t>-0,13; 2,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,06</t>
+          <t>4,59; 11,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,72</t>
+          <t>-4,29; 4,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,38</t>
+          <t>-4,34; 3,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,93</t>
+          <t>-4,07; 4,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 2,9</t>
+          <t>-6,32; 2,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 1,75</t>
+          <t>-7,18; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -0,37</t>
+          <t>-8,42; 0,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,71</t>
+          <t>-3,88; 2,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,95</t>
+          <t>-4,2; 1,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,78</t>
+          <t>-4,13; 1,77</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,34; 190,75</t>
+          <t>-70,18; 167,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,66; 140,33</t>
+          <t>-69,34; 125,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 195,09</t>
+          <t>-66,38; 173,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 100,38</t>
+          <t>-67,52; 104,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,05; 77,32</t>
+          <t>-69,57; 64,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,7; 79,27</t>
+          <t>-71,48; 75,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 12,85</t>
+          <t>0,13; 11,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,53</t>
+          <t>-3,69; 5,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -0,83</t>
+          <t>-7,32; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 3,3</t>
+          <t>-13,75; 3,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 0,0</t>
+          <t>-17,36; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 18,3</t>
+          <t>-7,18; 19,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 8,73</t>
+          <t>-1,1; 8,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,03</t>
+          <t>-5,04; 2,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,7</t>
+          <t>-6,39; 1,48</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 1348,1</t>
+          <t>-18,23; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 858,03</t>
+          <t>-38,08; 809,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 373,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,85</t>
+          <t>-2,86; 4,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,1</t>
+          <t>-3,34; 3,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,91</t>
+          <t>-0,24; 7,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,22</t>
+          <t>-4,31; 2,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,63</t>
+          <t>-3,51; 3,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,26</t>
+          <t>-2,68; 4,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,85</t>
+          <t>-2,4; 2,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,31</t>
+          <t>-2,35; 2,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,45</t>
+          <t>-0,43; 5,41</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 822,23</t>
+          <t>-74,7; 553,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-85,98; 488,38</t>
+          <t>-85,46; 390,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 1087,9</t>
+          <t>-24,68; 1009,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 305,32</t>
+          <t>-71,13; 262,91</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 232,59</t>
+          <t>-75,02; 279,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 541,89</t>
+          <t>-20,62; 562,4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,01</t>
+          <t>0,38; 6,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,88</t>
+          <t>4,49; 11,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,86</t>
+          <t>6,93; 17,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,18</t>
+          <t>0,45; 3,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,64</t>
+          <t>4,31; 10,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,4</t>
+          <t>0,85; 9,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,37</t>
+          <t>0,58; 4,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,15</t>
+          <t>4,81; 10,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,37</t>
+          <t>1,92; 11,89</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 813,45</t>
+          <t>-11,7; 872,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>117,67; 1424,41</t>
+          <t>108,26; 1558,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>189,42; 2114,83</t>
+          <t>179,38; 2306,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,79; 811,85</t>
+          <t>6,98; 834,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>178,31; 1885,96</t>
+          <t>181,5; 2061,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>82,96; 1826,76</t>
+          <t>95,05; 1828,63</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,35</t>
+          <t>0,29; 5,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,67</t>
+          <t>-0,34; 3,53</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,99</t>
+          <t>-0,99; 3,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,9</t>
+          <t>-0,63; 3,87</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,74</t>
+          <t>-0,9; 2,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,12</t>
+          <t>-0,11; 7,7</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,06</t>
+          <t>0,58; 4,0</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,7</t>
+          <t>-0,14; 2,67</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,51</t>
+          <t>-0,4; 3,23</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 525,99</t>
+          <t>-4,59; 598,92</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 370,42</t>
+          <t>-27,05; 426,2</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,63; 318,91</t>
+          <t>-59,13; 312,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,44; 534,24</t>
+          <t>16,48; 476,35</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 365,62</t>
+          <t>-13,99; 325,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 393,63</t>
+          <t>-28,81; 395,63</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,47</t>
+          <t>2,63; 5,46</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,79</t>
+          <t>1,3; 3,94</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,33</t>
+          <t>1,96; 5,06</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,13</t>
+          <t>-0,59; 1,99</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,2</t>
+          <t>0,45; 3,09</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,44</t>
+          <t>-0,82; 2,34</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,93</t>
+          <t>1,8; 3,99</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,24</t>
+          <t>1,26; 3,31</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,57</t>
+          <t>1,01; 3,5</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>84,0; 248,52</t>
+          <t>77,48; 238,34</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>39,89; 173,2</t>
+          <t>38,6; 171,03</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>60,28; 244,41</t>
+          <t>57,58; 217,73</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 231,32</t>
+          <t>-32,19; 213,3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>16,4; 353,9</t>
+          <t>17,55; 339,74</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 252,41</t>
+          <t>-34,06; 222,15</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>65,59; 203,79</t>
+          <t>65,46; 205,15</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>45,83; 165,47</t>
+          <t>41,18; 165,44</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>39,07; 175,86</t>
+          <t>38,68; 173,03</t>
         </is>
       </c>
     </row>
